--- a/Тест-кейс.xlsx
+++ b/Тест-кейс.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -505,6 +505,14 @@
   </si>
   <si>
     <t xml:space="preserve">Иногда все тесты PASS, но чаще несколько тестов из 100  со статусом Failed и ошибкой: </t>
+  </si>
+  <si>
+    <t>{
+    "error": {
+        "id": "dd3d03a4-96b7-4d17-9397-d727283f5e20",
+        "message": "Параметр 'title' является обязательным"
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -843,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1051,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="360" x14ac:dyDescent="0.25">
@@ -1056,7 +1064,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>26</v>
@@ -1319,13 +1327,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="H18:H19"/>
@@ -1342,16 +1353,13 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="H23:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
